--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P16_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P16_trail3 Features.xlsx
@@ -6024,7 +6024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6035,29 +6035,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6078,115 +6076,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6203,72 +6191,66 @@
         <v>1.04898227209596e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.4473371613165614</v>
+        <v>3.618396120320778e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.8985581300265917</v>
+        <v>1.679768875304464e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.618396120320778e-07</v>
+        <v>-0.01566647330269466</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.679768875304464e-06</v>
+        <v>0.1583299288822684</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.01566647330269466</v>
+        <v>0.02531170411720914</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1583299288822684</v>
+        <v>1.918111528872352</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02531170411720914</v>
+        <v>2.36826787667287</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.94910185859561</v>
+        <v>6.006170703531494</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.36826787667287</v>
+        <v>1.798343078666506e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>6.006170703531494</v>
+        <v>6844486646.450304</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.798343078666506e-17</v>
+        <v>1.757666163033814e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>6844486646.450304</v>
+        <v>842.4697362669503</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.757666163033814e-08</v>
+        <v>0.0001066214898341029</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>842.4697362669503</v>
+        <v>9.44685583203816</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001066214898341029</v>
+        <v>1.100415943320924</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.44685583203816</v>
+        <v>0.009515230691959885</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.100415943320924</v>
+        <v>4.183098677790781</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.009515230691959885</v>
+        <v>0.9570823918439902</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>4.183098677790781</v>
+        <v>1.045917299160622</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9570823918439902</v>
+        <v>121</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.045917299160622</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>121</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>3.243744731827944</v>
       </c>
     </row>
@@ -6283,72 +6265,66 @@
         <v>1.06564544630795e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.418438135739016</v>
+        <v>3.648213970562746e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.9212301371928442</v>
+        <v>1.678196631407571e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.648213970562746e-07</v>
+        <v>-0.01468878334109507</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.678196631407571e-06</v>
+        <v>0.1554785217667376</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.01468878334109507</v>
+        <v>0.02438921935377574</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1554785217667376</v>
+        <v>1.912855395457994</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02438921935377574</v>
+        <v>2.716412473073056</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.941352284693836</v>
+        <v>5.686707995589114</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.716412473073056</v>
+        <v>1.448689999970556e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.686707995589114</v>
+        <v>8562231619.991653</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.448689999970556e-17</v>
+        <v>1.406194650769002e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>8562231619.991653</v>
+        <v>1062.060864821877</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.406194650769002e-08</v>
+        <v>0.0001033114617816547</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1062.060864821877</v>
+        <v>9.60046286198353</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001033114617816547</v>
+        <v>1.10001716899935</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.60046286198353</v>
+        <v>0.009522102463734805</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.10001716899935</v>
+        <v>4.262566249998243</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.009522102463734805</v>
+        <v>0.9568012612900665</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>4.262566249998243</v>
+        <v>0.9902799215995752</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9568012612900665</v>
+        <v>121</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.9902799215995752</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>121</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>3.510709890796359</v>
       </c>
     </row>
@@ -6363,72 +6339,66 @@
         <v>1.082844081190606e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.3933982120887387</v>
+        <v>3.673144487986752e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.9469819976473448</v>
+        <v>1.676511961035344e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.673144487986752e-07</v>
+        <v>-0.01722385364289163</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.676511961035344e-06</v>
+        <v>0.1514176880749879</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.01722385364289163</v>
+        <v>0.02321981344575313</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1514176880749879</v>
+        <v>1.918157127605449</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02321981344575313</v>
+        <v>2.684697576110968</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.945036906560256</v>
+        <v>5.64845146725762</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.684697576110968</v>
+        <v>1.334426780420427e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.64845146725762</v>
+        <v>9245542449.824228</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.334426780420427e-17</v>
+        <v>1.303484215005319e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>9245542449.824228</v>
+        <v>1140.668748393562</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.303484215005319e-08</v>
+        <v>0.0001146273771469951</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1140.668748393562</v>
+        <v>9.490658348904294</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001146273771469951</v>
+        <v>1.247577097651953</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.490658348904294</v>
+        <v>0.0103247854203369</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.247577097651953</v>
+        <v>4.327186898232681</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0103247854203369</v>
+        <v>0.9569952968104224</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>4.327186898232681</v>
+        <v>0.992776641416197</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9569952968104224</v>
+        <v>121</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.992776641416197</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>121</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>3.435932397521084</v>
       </c>
     </row>
@@ -6443,72 +6413,66 @@
         <v>1.101747563259755e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.3805355152760694</v>
+        <v>3.693719410563107e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.9793427056080088</v>
+        <v>1.674333418069996e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.693719410563107e-07</v>
+        <v>-0.02315530985916808</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.674333418069996e-06</v>
+        <v>0.1404987306527306</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.02315530985916808</v>
+        <v>0.02026225465055002</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1404987306527306</v>
+        <v>1.917446825685172</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02026225465055002</v>
+        <v>3.215449874987033</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.944597930848115</v>
+        <v>5.732064176529097</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.215449874987033</v>
+        <v>1.295780571534225e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.732064176529097</v>
+        <v>9498740935.183157</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.295780571534225e-17</v>
+        <v>1.269090101894412e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>9498740935.183157</v>
+        <v>1169.132006722611</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.269090101894412e-08</v>
+        <v>0.0001229404869659613</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1169.132006722611</v>
+        <v>9.564171471188279</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001229404869659613</v>
+        <v>1.384472868143217</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.564171471188279</v>
+        <v>0.01124578138129051</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.384472868143217</v>
+        <v>4.505709652743583</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01124578138129051</v>
+        <v>0.9573147560304115</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>4.505709652743583</v>
+        <v>0.9551918679177431</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9573147560304115</v>
+        <v>106</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.9551918679177431</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>106</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>3.767361100000651</v>
       </c>
     </row>
@@ -6523,72 +6487,66 @@
         <v>1.120359373415517e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.3929871992159963</v>
+        <v>3.712016567801462e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.000213577998025</v>
+        <v>1.671291624001858e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.712016567801462e-07</v>
+        <v>-0.03178989565058681</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.671291624001858e-06</v>
+        <v>0.1182720099190846</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.03178989565058681</v>
+        <v>0.01497655290110551</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1182720099190846</v>
+        <v>1.924272445159842</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01497655290110551</v>
+        <v>3.204081507188065</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.948233991455873</v>
+        <v>5.718690177034807</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.204081507188065</v>
+        <v>1.30184840604875e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.718690177034807</v>
+        <v>9393122919.930218</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.30184840604875e-17</v>
+        <v>1.284145634725214e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>9393122919.930218</v>
+        <v>1148.630719127161</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.284145634725214e-08</v>
+        <v>0.0001114501327866778</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1148.630719127161</v>
+        <v>10.59419764618836</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001114501327866778</v>
+        <v>1.31095370910762</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.59419764618836</v>
+        <v>0.01250883120235825</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.31095370910762</v>
+        <v>4.905715578672273</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01250883120235825</v>
+        <v>0.9579179470653401</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>4.905715578672273</v>
+        <v>0.9490407268604105</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9579179470653401</v>
+        <v>108</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.9490407268604105</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>108</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>4.680397589494712</v>
       </c>
     </row>
@@ -6603,72 +6561,66 @@
         <v>1.132523374841073e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.4340064178880793</v>
+        <v>3.725502146430281e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.9707361049196397</v>
+        <v>1.667149448043654e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.725502146430281e-07</v>
+        <v>-0.04156052168073952</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.667149448043654e-06</v>
+        <v>0.08397887776360623</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.04156052168073952</v>
+        <v>0.008759440064552397</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.08397887776360623</v>
+        <v>1.921678487774176</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.008759440064552397</v>
+        <v>3.001498987459542</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.948670430352095</v>
+        <v>5.558172423909017</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.001498987459542</v>
+        <v>1.378127889991929e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.558172423909017</v>
+        <v>8567184209.103588</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.378127889991929e-17</v>
+        <v>1.404383110753154e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>8567184209.103588</v>
+        <v>1011.499638821713</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.404383110753154e-08</v>
+        <v>8.667794984151691e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1011.499638821713</v>
+        <v>13.00327451221735</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>8.667794984151691e-05</v>
+        <v>1.047188338171716</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>13.00327451221735</v>
+        <v>0.01465595398076364</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.047188338171716</v>
+        <v>5.36148737991393</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01465595398076364</v>
+        <v>0.9592005306492615</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>5.36148737991393</v>
+        <v>0.9860894058239795</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9592005306492615</v>
+        <v>104</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.9860894058239795</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>104</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>6.18923168770886</v>
       </c>
     </row>
@@ -6683,72 +6635,66 @@
         <v>1.131867684405503e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.484666058953939</v>
+        <v>3.730602964698776e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.8884361885974368</v>
+        <v>1.661966068645594e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.730602964698776e-07</v>
+        <v>-0.0492778661060961</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.661966068645594e-06</v>
+        <v>0.05297696908252029</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.0492778661060961</v>
+        <v>0.005227715708131121</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.05297696908252029</v>
+        <v>1.919937872153052</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.005227715708131121</v>
+        <v>2.603543502953801</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.948345587324516</v>
+        <v>5.150296072689974</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.603543502953801</v>
+        <v>1.633860991343091e-17</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>5.150296072689974</v>
+        <v>7320149276.497606</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.633860991343091e-17</v>
+        <v>1.641121260042768e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>7320149276.497606</v>
+        <v>875.4976387170892</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.641121260042768e-08</v>
+        <v>8.786995381411525e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>875.4976387170892</v>
+        <v>13.070482781912</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>8.786995381411525e-05</v>
+        <v>1.060761947313902</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>13.070482781912</v>
+        <v>0.0150114850054969</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.060761947313902</v>
+        <v>5.316936123280256</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0150114850054969</v>
+        <v>0.9603251206879473</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>5.316936123280256</v>
+        <v>0.9448697467250307</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9603251206879473</v>
+        <v>91</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.9448697467250307</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>6.269386105749918</v>
       </c>
     </row>
@@ -6763,72 +6709,66 @@
         <v>1.118293018440132e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.5243963268881275</v>
+        <v>3.730602964698776e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.8001438122934541</v>
+        <v>1.656134722180522e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.730602964698776e-07</v>
+        <v>-0.05380831004761609</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.656134722180522e-06</v>
+        <v>0.03802153073059383</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.05380831004761609</v>
+        <v>0.004339839290918202</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.03802153073059383</v>
+        <v>1.915568051183097</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.004339839290918202</v>
+        <v>2.625499790158721</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.94690259121636</v>
+        <v>5.247954986484954</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.625499790158721</v>
+        <v>1.485955907324505e-17</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5.247954986484954</v>
+        <v>7975550087.015208</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.485955907324505e-17</v>
+        <v>1.502821733589816e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>7975550087.015208</v>
+        <v>945.2076248846869</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.502821733589816e-08</v>
+        <v>0.0001054038614947536</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>945.2076248846869</v>
+        <v>10.66833743164832</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001054038614947536</v>
+        <v>1.267912454888368</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.66833743164832</v>
+        <v>0.01199637433268857</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.267912454888368</v>
+        <v>4.862435278593539</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01199637433268857</v>
+        <v>0.9609229921428054</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>4.862435278593539</v>
+        <v>0.9617874847727791</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9609229921428054</v>
+        <v>91</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.9617874847727791</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>4.597633940014322</v>
       </c>
     </row>
@@ -6843,72 +6783,66 @@
         <v>1.09532438661814e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.5486488763002424</v>
+        <v>3.730602964698776e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.7358361308707995</v>
+        <v>1.650025842664355e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3.730602964698776e-07</v>
+        <v>-0.05622205295322277</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.650025842664355e-06</v>
+        <v>0.03469864697771346</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.05622205295322277</v>
+        <v>0.004365185165342434</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.03469864697771346</v>
+        <v>1.915928224737051</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.004365185165342434</v>
+        <v>2.511934950123135</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.947958042341025</v>
+        <v>5.474722077377785</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.511934950123135</v>
+        <v>1.794959738385374e-17</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>5.474722077377785</v>
+        <v>6767557264.319597</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.794959738385374e-17</v>
+        <v>1.769736932838834e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>6767557264.319597</v>
+        <v>822.0885325473289</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.769736932838834e-08</v>
+        <v>0.0001252225016678594</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>822.0885325473289</v>
+        <v>9.413255800261757</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001252225016678594</v>
+        <v>1.415903659139306</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.413255800261757</v>
+        <v>0.01109588883104256</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.415903659139306</v>
+        <v>4.364373768184294</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01109588883104256</v>
+        <v>0.9616085875961065</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>4.364373768184294</v>
+        <v>0.9760502741923448</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9616085875961065</v>
+        <v>85</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.9760502741923448</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>3.208691801677512</v>
       </c>
     </row>
@@ -6923,72 +6857,66 @@
         <v>1.066054109255767e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.5601174336053979</v>
+        <v>3.722102137471742e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.702320570146699</v>
+        <v>1.643879972938898e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.722102137471742e-07</v>
+        <v>-0.05728496636228391</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.643879972938898e-06</v>
+        <v>0.03654289802371027</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.05728496636228391</v>
+        <v>0.004617239891361424</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.03654289802371027</v>
+        <v>1.894850069087576</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.004617239891361424</v>
+        <v>2.53240833572795</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.919796705712441</v>
+        <v>6.008178036664824</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.53240833572795</v>
+        <v>2.090202899960236e-17</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>6.008178036664824</v>
+        <v>5770020609.260522</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.090202899960236e-17</v>
+        <v>2.073333919195103e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>5770020609.260522</v>
+        <v>695.8941324374064</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.073333919195103e-08</v>
+        <v>0.0001210241048989465</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>695.8941324374064</v>
+        <v>10.51245993233633</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001210241048989465</v>
+        <v>1.180534094467159</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>10.51245993233633</v>
+        <v>0.01337459334941093</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.180534094467159</v>
+        <v>4.245416242244968</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01337459334941093</v>
+        <v>0.9624771949701469</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>4.245416242244968</v>
+        <v>1.107353917573571</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9624771949701469</v>
+        <v>43</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.107353917573571</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>3.054578637379031</v>
       </c>
     </row>
@@ -7003,72 +6931,66 @@
         <v>1.032829412911308e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.562272070419192</v>
+        <v>3.664292197421146e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.6974819693029257</v>
+        <v>1.637839947793203e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.664292197421146e-07</v>
+        <v>-0.05775028932472032</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.637839947793203e-06</v>
+        <v>0.03926221579841049</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05775028932472032</v>
+        <v>0.004876639926546957</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.03926221579841049</v>
+        <v>1.887595343480132</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.004876639926546957</v>
+        <v>2.294049470519198</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.897785140537802</v>
+        <v>5.708260940898491</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.294049470519198</v>
+        <v>6.345078884858056e-17</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>5.708260940898491</v>
+        <v>1877479436.536837</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>6.345078884858056e-17</v>
+        <v>6.368411745586975e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1877479436.536837</v>
+        <v>223.6595278818207</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>6.368411745586975e-08</v>
+        <v>0.000146820677502324</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>223.6595278818207</v>
+        <v>9.67791108012177</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.000146820677502324</v>
+        <v>1.497509266104669</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.67791108012177</v>
+        <v>0.01375151284546739</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.497509266104669</v>
+        <v>4.062389672286</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01375151284546739</v>
+        <v>0.9634551682814331</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>4.062389672286</v>
+        <v>1.39844351632782</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9634551682814331</v>
+        <v>13</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.39844351632782</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>2.386704930506808</v>
       </c>
     </row>
@@ -7083,72 +7005,66 @@
         <v>9.977157624811689e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.5572438679734395</v>
+        <v>3.567813018849389e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.7175929894255013</v>
+        <v>1.631959227649715e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3.567813018849389e-07</v>
+        <v>-0.05807645649186886</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.631959227649715e-06</v>
+        <v>0.04120201182269145</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05807645649186886</v>
+        <v>0.005070129819284366</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.04120201182269145</v>
+        <v>1.890707513887553</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.005070129819284366</v>
+        <v>2.248090959388133</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.8957128585338</v>
+        <v>4.603393332088023</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.248090959388133</v>
+        <v>1.0751270890198e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.603393332088023</v>
+        <v>1148005682.650989</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.0751270890198e-16</v>
+        <v>1.045106167974644e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>1148005682.650989</v>
+        <v>141.6928318739617</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.045106167974644e-07</v>
+        <v>0.0001795103876059345</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>141.6928318739617</v>
+        <v>9.321849096297083</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001795103876059345</v>
+        <v>1.728881603276196</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.321849096297083</v>
+        <v>0.01559889091850565</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.728881603276196</v>
+        <v>3.434534252568191</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01559889091850565</v>
+        <v>0.9630076138751951</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.434534252568191</v>
+        <v>1.332337477874091</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9630076138751951</v>
+        <v>13</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.332337477874091</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.9411856472560336</v>
       </c>
     </row>
@@ -7163,72 +7079,66 @@
         <v>9.623174154462561e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.5468777163084222</v>
+        <v>3.447779731220326e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.758501740899272</v>
+        <v>1.626254708722124e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3.447779731220326e-07</v>
+        <v>-0.05832295797152589</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.626254708722124e-06</v>
+        <v>0.04232690783858269</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05832295797152589</v>
+        <v>0.005192359861513145</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.04232690783858269</v>
+        <v>1.888118562421076</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.005192359861513145</v>
+        <v>2.242146070426548</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.891481478119918</v>
+        <v>4.307019288414932</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.242146070426548</v>
+        <v>1.228180901620991e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.307019288414932</v>
+        <v>996972408.235796</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.228180901620991e-16</v>
+        <v>1.201099084502205e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>996972408.235796</v>
+        <v>122.0755298744793</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.201099084502205e-07</v>
+        <v>0.0001396448694989156</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>122.0755298744793</v>
+        <v>9.412960836493269</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001396448694989156</v>
+        <v>1.36451474903802</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.412960836493269</v>
+        <v>0.01237307051615691</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.36451474903802</v>
+        <v>3.280020714545906</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01237307051615691</v>
+        <v>0.9627466657590501</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.280020714545906</v>
+        <v>1.377336299481996</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9627466657590501</v>
+        <v>13</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.377336299481996</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.5212472222538157</v>
       </c>
     </row>
@@ -7243,72 +7153,66 @@
         <v>9.278211579297726e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.5337437814824255</v>
+        <v>3.307310015657631e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.8137807076398369</v>
+        <v>1.620741799497032e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>3.307310015657631e-07</v>
+        <v>-0.05830890980471348</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.620741799497032e-06</v>
+        <v>0.04255973256324009</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05830890980471348</v>
+        <v>0.005210004049423631</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.04255973256324009</v>
+        <v>1.893031245232222</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.005210004049423631</v>
+        <v>2.188096033233353</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.892531426152938</v>
+        <v>4.267528501346627</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.188096033233353</v>
+        <v>1.251016715457435e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.267528501346627</v>
+        <v>952773158.9023925</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.251016715457435e-16</v>
+        <v>1.256547794493711e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>952773158.9023925</v>
+        <v>113.5643816001041</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.256547794493711e-07</v>
+        <v>0.0001321621028822347</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>113.5643816001041</v>
+        <v>9.706957233514679</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001321621028822347</v>
+        <v>1.179536460319396</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.706957233514679</v>
+        <v>0.01245297661990863</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.179536460319396</v>
+        <v>3.050407141348464</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01245297661990863</v>
+        <v>0.9623256714219699</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.050407141348464</v>
+        <v>1.399349200255534</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9623256714219699</v>
+        <v>13</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.399349200255534</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.4017813373643855</v>
       </c>
     </row>
@@ -7323,72 +7227,66 @@
         <v>8.95138613535818e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.5214360068557669</v>
+        <v>3.155766014591542e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.8733569248895945</v>
+        <v>1.615440989232487e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3.155766014591542e-07</v>
+        <v>-0.05798705367504422</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.615440989232487e-06</v>
+        <v>0.04203447921250041</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.05798705367504422</v>
+        <v>0.005127908140498303</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.04203447921250041</v>
+        <v>1.900462631330127</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.005127908140498303</v>
+        <v>2.152009981027449</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.900964479093987</v>
+        <v>4.298703443078487</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.152009981027449</v>
+        <v>1.23293733175739e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.298703443078487</v>
+        <v>980558031.8486818</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.23293733175739e-16</v>
+        <v>1.22221810300133e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>980558031.8486818</v>
+        <v>118.5461913221077</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.22221810300133e-07</v>
+        <v>0.0001362484899799568</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>118.5461913221077</v>
+        <v>9.495718432274971</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001362484899799568</v>
+        <v>1.198536889477929</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.495718432274971</v>
+        <v>0.01228534493276583</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.198536889477929</v>
+        <v>2.964240638043611</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01228534493276583</v>
+        <v>0.9630988598731556</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.964240638043611</v>
+        <v>1.379260357823521</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9630988598731556</v>
+        <v>22</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.379260357823521</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.3613135146746367</v>
       </c>
     </row>
@@ -7403,72 +7301,66 @@
         <v>8.646235105803109e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.512674868991073</v>
+        <v>3.004484734598765e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.9293313292678462</v>
+        <v>1.610363546911471e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.004484734598765e-07</v>
+        <v>-0.05742280800065186</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.610363546911471e-06</v>
+        <v>0.04117987167863568</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05742280800065186</v>
+        <v>0.004991639633780411</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.04117987167863568</v>
+        <v>1.901509485862917</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.004991639633780411</v>
+        <v>2.187712141427523</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.89702529288516</v>
+        <v>4.335329346995989</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.187712141427523</v>
+        <v>1.2121930283004e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.335329346995989</v>
+        <v>942992098.8921055</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.2121930283004e-16</v>
+        <v>1.267435348180068e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>942992098.8921055</v>
+        <v>107.7923374817107</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.267435348180068e-07</v>
+        <v>0.0001409101956259989</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>107.7923374817107</v>
+        <v>8.570306084605212</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001409101956259989</v>
+        <v>1.287022949605843</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.570306084605212</v>
+        <v>0.01034987449570249</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.287022949605843</v>
+        <v>3.082285144720972</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01034987449570249</v>
+        <v>0.9622058744241385</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.082285144720972</v>
+        <v>1.412188305227509</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9622058744241385</v>
+        <v>29</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.412188305227509</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.3466987322671127</v>
       </c>
     </row>
@@ -7483,72 +7375,66 @@
         <v>8.362938595985585e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.5089843256613219</v>
+        <v>2.858609934796254e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.9768490575542232</v>
+        <v>1.605507785116073e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2.858609934796254e-07</v>
+        <v>-0.05681974466837838</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.605507785116073e-06</v>
+        <v>0.04011608750414602</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05681974466837838</v>
+        <v>0.004836260428480118</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.04011608750414602</v>
+        <v>1.899296148428614</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.004836260428480118</v>
+        <v>2.137073248936694</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.890157904950355</v>
+        <v>4.23012133165976</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.137073248936694</v>
+        <v>1.273240148274589e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.23012133165976</v>
+        <v>896344650.8930546</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.273240148274589e-16</v>
+        <v>1.331582193838789e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>896344650.8930546</v>
+        <v>102.2964085568757</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.331582193838789e-07</v>
+        <v>0.0001526145399418297</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>102.2964085568757</v>
+        <v>8.311641229628377</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001526145399418297</v>
+        <v>1.472269924432541</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.311641229628377</v>
+        <v>0.01054312824565248</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.472269924432541</v>
+        <v>3.124856411817595</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01054312824565248</v>
+        <v>0.9626048212989308</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.124856411817595</v>
+        <v>1.45852787760337</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9626048212989308</v>
+        <v>29</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.45852787760337</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.362548920571334</v>
       </c>
     </row>
@@ -7563,72 +7449,66 @@
         <v>8.102208306814092e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.5108083430682075</v>
+        <v>2.740930335958882e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.012650995387585</v>
+        <v>1.600850694017041e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2.740930335958882e-07</v>
+        <v>-0.05638841899116256</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.600850694017041e-06</v>
+        <v>0.03884582262998694</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.05638841899116256</v>
+        <v>0.004687193723792097</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.03884582262998694</v>
+        <v>1.897562056123425</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.004687193723792097</v>
+        <v>2.131242635039899</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.889502879353482</v>
+        <v>4.156285579091335</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.131242635039899</v>
+        <v>1.318879787236293e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.156285579091335</v>
+        <v>855484207.3285192</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.318879787236293e-16</v>
+        <v>1.393152969381109e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>855484207.3285192</v>
+        <v>96.52264309365532</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.393152969381109e-07</v>
+        <v>0.0001475811153475525</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>96.52264309365532</v>
+        <v>9.322290803077307</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001475811153475525</v>
+        <v>1.293474260866014</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.322290803077307</v>
+        <v>0.01282555244589055</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.293474260866014</v>
+        <v>3.079775689968131</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01282555244589055</v>
+        <v>0.9622276058524422</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.079775689968131</v>
+        <v>1.428867787352835</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9622276058524422</v>
+        <v>29</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.428867787352835</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.368243511104021</v>
       </c>
     </row>
@@ -7643,72 +7523,66 @@
         <v>7.864106054303799e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.5177057238729793</v>
+        <v>2.652028206917571e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.035122733096318</v>
+        <v>1.596359639169945e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>2.652028206917571e-07</v>
+        <v>-0.05621171000572227</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.596359639169945e-06</v>
+        <v>0.03766494857915118</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.05621171000572227</v>
+        <v>0.004577057353625527</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.03766494857915118</v>
+        <v>1.891738429056866</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.004577057353625527</v>
+        <v>2.219075763316706</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.887451198643302</v>
+        <v>4.082529349260511</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.219075763316706</v>
+        <v>1.366964833420973e-16</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.082529349260511</v>
+        <v>834037047.274827</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.366964833420973e-16</v>
+        <v>1.430731711673356e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>834037047.274827</v>
+        <v>95.08850649439852</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.430731711673356e-07</v>
+        <v>0.0001412104485002564</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>95.08850649439852</v>
+        <v>9.981173879993657</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001412104485002564</v>
+        <v>1.201105247717934</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.981173879993657</v>
+        <v>0.0140679260012351</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.201105247717934</v>
+        <v>2.925460302947393</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.0140679260012351</v>
+        <v>0.963017656251924</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.925460302947393</v>
+        <v>1.414392331039579</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.963017656251924</v>
+        <v>25</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.414392331039579</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.3446626148850576</v>
       </c>
     </row>
@@ -7723,72 +7597,66 @@
         <v>7.647756309427577e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.528474778218296</v>
+        <v>2.5834865112526e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.044176922256812</v>
+        <v>1.59199905324453e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2.5834865112526e-07</v>
+        <v>-0.05630799096628233</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.59199905324453e-06</v>
+        <v>0.03675157920406494</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.05630799096628233</v>
+        <v>0.004520033555218029</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.03675157920406494</v>
+        <v>1.885142978236951</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.004520033555218029</v>
+        <v>2.114273433410895</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.883844059390114</v>
+        <v>4.08853767461752</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.114273433410895</v>
+        <v>1.362950129251679e-16</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.08853767461752</v>
+        <v>835421603.3709501</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.362950129251679e-16</v>
+        <v>1.424249750790319e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>835421603.3709501</v>
+        <v>95.1242768827185</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.424249750790319e-07</v>
+        <v>0.0001373450923703117</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>95.1242768827185</v>
+        <v>9.189580949041609</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001373450923703117</v>
+        <v>1.222703976418721</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.189580949041609</v>
+        <v>0.01159857302644282</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.222703976418721</v>
+        <v>2.991730177308153</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01159857302644282</v>
+        <v>0.9635499031067618</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.991730177308153</v>
+        <v>1.433737793108294</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9635499031067618</v>
+        <v>21</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.433737793108294</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.3181162963907293</v>
       </c>
     </row>
@@ -7803,72 +7671,66 @@
         <v>7.451864086007148e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.541865626855778</v>
+        <v>2.527545958642613e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.039774546845278</v>
+        <v>1.587741132888731e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>2.527545958642613e-07</v>
+        <v>-0.05653670954594189</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.587741132888731e-06</v>
+        <v>0.03605140943271008</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.05653670954594189</v>
+        <v>0.004494952324070515</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.03605140943271008</v>
+        <v>1.885990554858299</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.004494952324070515</v>
+        <v>2.135780235169825</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.882459162119885</v>
+        <v>4.168679225494597</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.135780235169825</v>
+        <v>1.311049282368154e-16</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.168679225494597</v>
+        <v>881759954.6231468</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.311049282368154e-16</v>
+        <v>1.352458079163921e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>881759954.6231468</v>
+        <v>101.934162671514</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.352458079163921e-07</v>
+        <v>0.0001370803161885168</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>101.934162671514</v>
+        <v>8.446328621419832</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001370803161885168</v>
+        <v>1.283070520869278</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.446328621419832</v>
+        <v>0.009779373798210155</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.283070520869278</v>
+        <v>3.077161253702296</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.009779373798210155</v>
+        <v>0.9630694549824945</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.077161253702296</v>
+        <v>1.42739455467195</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9630694549824945</v>
+        <v>33</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.42739455467195</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.3284986627074172</v>
       </c>
     </row>
@@ -7883,72 +7745,66 @@
         <v>7.27507505266614e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.556911036431148</v>
+        <v>2.482811861030837e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.021362929235741</v>
+        <v>1.583567823487664e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>2.482811861030837e-07</v>
+        <v>-0.0568850788594918</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.583567823487664e-06</v>
+        <v>0.03560650270249755</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.0568850788594918</v>
+        <v>0.004502759147284927</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.03560650270249755</v>
+        <v>1.893200919420136</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.004502759147284927</v>
+        <v>2.063633956936562</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.884947318573574</v>
+        <v>4.398326559025005</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.063633956936562</v>
+        <v>1.177717236658707e-16</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.398326559025005</v>
+        <v>1003322715.050648</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.177717236658707e-16</v>
+        <v>1.197384893558241e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>1003322715.050648</v>
+        <v>118.5556676744976</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.197384893558241e-07</v>
+        <v>0.0001431964330141867</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>118.5556676744976</v>
+        <v>8.551437274673148</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001431964330141867</v>
+        <v>1.345101258391443</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.551437274673148</v>
+        <v>0.01047153693579924</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.345101258391443</v>
+        <v>3.095077373815493</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01047153693579924</v>
+        <v>0.9619487934152952</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.095077373815493</v>
+        <v>1.423407838233436</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9619487934152952</v>
+        <v>39</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.423407838233436</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.3965223096150896</v>
       </c>
     </row>
@@ -7963,72 +7819,66 @@
         <v>7.11468092748396e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.5719333688727182</v>
+        <v>2.449480722765354e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.9904001751865952</v>
+        <v>1.579456893004946e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>2.449480722765354e-07</v>
+        <v>-0.05738339447096965</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.579456893004946e-06</v>
+        <v>0.03562575136010841</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05738339447096965</v>
+        <v>0.004561593946736621</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.03562575136010841</v>
+        <v>1.75801692576899</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.004561593946736621</v>
+        <v>1.351092488934035</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.786128032792108</v>
+        <v>26.03487354657194</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.351092488934035</v>
+        <v>3.60463623796803e-16</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>26.03487354657194</v>
+        <v>3005760483.125648</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3.60463623796803e-16</v>
+        <v>3.636001126632427e-08</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>3005760483.125648</v>
+        <v>3256.643243229183</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>3.636001126632427e-08</v>
+        <v>0.0001632686973525004</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>3256.643243229183</v>
+        <v>9.155040227771341</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001632686973525004</v>
+        <v>1.351127942747479</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.155040227771341</v>
+        <v>0.01368432694078905</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.351127942747479</v>
+        <v>3.018997702526991</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01368432694078905</v>
+        <v>0.9613699753697784</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.018997702526991</v>
+        <v>0.8593838043851151</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9613699753697784</v>
+        <v>42</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.8593838043851151</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.5020123989808785</v>
       </c>
     </row>
@@ -8405,7 +8255,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.834681995614085</v>
+        <v>2.005982641495037</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.691646111173243</v>
@@ -8494,7 +8344,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.830726543009446</v>
+        <v>2.008644383104218</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.723902025646939</v>
@@ -8583,7 +8433,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.833800931606957</v>
+        <v>2.015404862544857</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.387468495702856</v>
@@ -8672,7 +8522,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.833604489206804</v>
+        <v>2.0120986115211</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.12670529133886</v>
@@ -8761,7 +8611,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.827322089336946</v>
+        <v>2.007597490851666</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.849214344623527</v>
@@ -8850,7 +8700,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.833099440380483</v>
+        <v>2.016152350933815</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.541619358312179</v>
@@ -8939,7 +8789,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.829650418289783</v>
+        <v>2.013017260907901</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.374088439608498</v>
@@ -9028,7 +8878,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.840296450642637</v>
+        <v>2.028286273947829</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.936338484209495</v>
@@ -9117,7 +8967,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.835510928467896</v>
+        <v>2.018556080411568</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.701888752954502</v>
@@ -9206,7 +9056,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.841898606798049</v>
+        <v>2.027834726607474</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.203787099834744</v>
@@ -9295,7 +9145,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.840254713405435</v>
+        <v>2.024076997051703</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.281320107560175</v>
@@ -9384,7 +9234,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.833790671636981</v>
+        <v>2.01260316314312</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.257079541311964</v>
@@ -9473,7 +9323,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.84080971901009</v>
+        <v>2.025821859400355</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.547066620957292</v>
@@ -9562,7 +9412,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.839426507894195</v>
+        <v>2.021008835708547</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.615023407885992</v>
@@ -9651,7 +9501,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.841621612504623</v>
+        <v>2.02211759676332</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.346030656114968</v>
@@ -9740,7 +9590,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.835992331127728</v>
+        <v>2.013591847459584</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.585001225142441</v>
@@ -9829,7 +9679,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.84376943248207</v>
+        <v>2.024121111251983</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.630569888102904</v>
@@ -9918,7 +9768,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.840973480099966</v>
+        <v>2.019944492341187</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.126958599013969</v>
@@ -10007,7 +9857,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.851570878998815</v>
+        <v>2.037529616764505</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.162694475969906</v>
@@ -10096,7 +9946,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.850388298425969</v>
+        <v>2.034356663533871</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.936315186753636</v>
@@ -10185,7 +10035,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.850676595981166</v>
+        <v>2.033701354141214</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.430235829122653</v>
@@ -10274,7 +10124,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.850648514954938</v>
+        <v>2.035522600431885</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.815718335472606</v>
@@ -10363,7 +10213,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.843716255380891</v>
+        <v>2.024466309297379</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.725638368812965</v>
@@ -10452,7 +10302,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.847985018674296</v>
+        <v>2.033028042151453</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.825903509864127</v>
@@ -10541,7 +10391,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.847104880015215</v>
+        <v>2.033344468728767</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.753742864229044</v>
@@ -10630,7 +10480,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.84493257233192</v>
+        <v>2.029480956886042</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.663606699022025</v>
@@ -10719,7 +10569,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.853432329888048</v>
+        <v>2.045213649992449</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.773170489943484</v>
@@ -10808,7 +10658,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.852070971512412</v>
+        <v>2.040640714171791</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.706440853494188</v>
@@ -10897,7 +10747,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.850405790730173</v>
+        <v>2.040584614176856</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.377893923685136</v>
@@ -10986,7 +10836,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.851074023656024</v>
+        <v>2.041136068201709</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.03022763638895</v>
@@ -11075,7 +10925,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.854210471173989</v>
+        <v>2.045653564707945</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.049420331861351</v>
@@ -11164,7 +11014,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.853021752115401</v>
+        <v>2.042975556304699</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.466005478344554</v>
@@ -11253,7 +11103,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.8466314152004</v>
+        <v>2.032532583782296</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.605655702681442</v>
@@ -11342,7 +11192,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.835873699361894</v>
+        <v>2.015131476300415</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.477629853297059</v>
@@ -11431,7 +11281,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.837487129227513</v>
+        <v>2.018347193013602</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.412387188239679</v>
@@ -11520,7 +11370,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.833581840293544</v>
+        <v>2.012648796032358</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.84349633635562</v>
@@ -11609,7 +11459,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.832481982116103</v>
+        <v>2.010530351202836</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.110684128320495</v>
@@ -11698,7 +11548,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.831870562757945</v>
+        <v>2.008373263552359</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.03017117797443</v>
@@ -11787,7 +11637,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.830218176399614</v>
+        <v>2.006467602702119</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.447092446687895</v>
@@ -11876,7 +11726,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.823087584210712</v>
+        <v>1.9939870567271</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.472275893717256</v>
@@ -11965,7 +11815,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.825763624947262</v>
+        <v>1.999212786115302</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.851934454612866</v>
@@ -12054,7 +11904,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.82319136948787</v>
+        <v>1.992351828273769</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.812826657626974</v>
@@ -12143,7 +11993,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.815365264454753</v>
+        <v>1.980887349308677</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.804022332792388</v>
@@ -12232,7 +12082,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.813815680188402</v>
+        <v>1.977031683725408</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.578964415194411</v>
@@ -12321,7 +12171,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.816340102211651</v>
+        <v>1.981973577026046</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.478668883859164</v>
@@ -12410,7 +12260,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.814829381359182</v>
+        <v>1.979687843834213</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.487211023365219</v>
@@ -12499,7 +12349,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.81491729993179</v>
+        <v>1.979637338799388</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.382166233199073</v>
@@ -12588,7 +12438,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.818097384860744</v>
+        <v>1.983822251779836</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.214135453946303</v>
@@ -12677,7 +12527,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.821885395642941</v>
+        <v>1.987515267190779</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.18911138459938</v>
@@ -12766,7 +12616,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.81241099436924</v>
+        <v>1.971043340040378</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.416374568916475</v>
@@ -12855,7 +12705,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.811192808699308</v>
+        <v>1.964746280207916</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.951855823535104</v>
@@ -12944,7 +12794,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.806360612791914</v>
+        <v>1.958700000871369</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.596781058328918</v>
@@ -13033,7 +12883,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.808317279099372</v>
+        <v>1.960521651860805</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.587736521635386</v>
@@ -13122,7 +12972,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.809011892288958</v>
+        <v>1.960798607579644</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.707763740427008</v>
@@ -13211,7 +13061,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.810973065509125</v>
+        <v>1.961121121535352</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.198580408922884</v>
@@ -13300,7 +13150,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.805007416489835</v>
+        <v>1.950684645850694</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.050834376082024</v>
@@ -13389,7 +13239,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.806802417457748</v>
+        <v>1.954548664529498</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.717027582725472</v>
@@ -13478,7 +13328,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.81302275684032</v>
+        <v>1.963647542964952</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.21089148294698</v>
@@ -13567,7 +13417,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.808555235265058</v>
+        <v>1.958363321095831</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.267442225479031</v>
@@ -13656,7 +13506,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.806346143177848</v>
+        <v>1.95661508954078</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.732436712854993</v>
@@ -13745,7 +13595,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.805143097309453</v>
+        <v>1.952787036096131</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.698144264721567</v>
@@ -13834,7 +13684,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.796937352249421</v>
+        <v>1.940528148185355</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.366244451970528</v>
@@ -13923,7 +13773,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.799583328533119</v>
+        <v>1.943453696174423</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.483973023299761</v>
@@ -14012,7 +13862,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.80058425621375</v>
+        <v>1.947242498068234</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.408684143781746</v>
@@ -14101,7 +13951,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.804443144237002</v>
+        <v>1.953520778626491</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.120875176152697</v>
@@ -14190,7 +14040,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.812697145254372</v>
+        <v>1.967007430828472</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.487592766233495</v>
@@ -14279,7 +14129,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.806905557275204</v>
+        <v>1.959919327386192</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.414118585762094</v>
@@ -14368,7 +14218,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.807170047595427</v>
+        <v>1.961147924032329</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>4.111044790341898</v>
@@ -14654,7 +14504,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.836891945972818</v>
+        <v>1.993742997953073</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.03012148703589</v>
@@ -14743,7 +14593,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.832855024875305</v>
+        <v>1.997805424415098</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.823235177716526</v>
@@ -14832,7 +14682,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.832662806825316</v>
+        <v>2.000420842970255</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.543918273690686</v>
@@ -14921,7 +14771,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.814448122783639</v>
+        <v>1.976720891292596</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.677038286235413</v>
@@ -15010,7 +14860,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.808509934837779</v>
+        <v>1.96860465502442</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.377425299571907</v>
@@ -15099,7 +14949,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.813749413295171</v>
+        <v>1.975678395581232</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.743472976774471</v>
@@ -15188,7 +15038,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.821952550463617</v>
+        <v>1.98866873538754</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.702998813849293</v>
@@ -15277,7 +15127,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.825385834430975</v>
+        <v>1.992299840133962</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.660524827604399</v>
@@ -15366,7 +15216,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.823515275804884</v>
+        <v>1.986979702897848</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.79849144592374</v>
@@ -15455,7 +15305,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.81306586469114</v>
+        <v>1.972867518993325</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.476578916302767</v>
@@ -15544,7 +15394,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.808858466266827</v>
+        <v>1.966585587138492</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.53209552414148</v>
@@ -15633,7 +15483,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.810037504734421</v>
+        <v>1.96738576834567</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.496493340533078</v>
@@ -15722,7 +15572,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.829603434229183</v>
+        <v>1.995425756932033</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.602085477173238</v>
@@ -15811,7 +15661,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.828937797401224</v>
+        <v>1.992292066454203</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.855017673806431</v>
@@ -15900,7 +15750,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.829629055642422</v>
+        <v>1.991891924861465</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.752296781605207</v>
@@ -15989,7 +15839,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.817104822352771</v>
+        <v>1.973213944374214</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.466664490344254</v>
@@ -16078,7 +15928,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.820779122771832</v>
+        <v>1.978214392526677</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.731883214513482</v>
@@ -16167,7 +16017,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.818518875696063</v>
+        <v>1.975525575621014</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.915799575620579</v>
@@ -16256,7 +16106,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.841859590716258</v>
+        <v>2.005000462703497</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.448769479033158</v>
@@ -16345,7 +16195,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.844164000968639</v>
+        <v>2.009036674291665</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.95704862678619</v>
@@ -16434,7 +16284,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.843761271585079</v>
+        <v>2.00688865956998</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.702469092782751</v>
@@ -16523,7 +16373,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.842645440146358</v>
+        <v>2.006463369130381</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.615867291860439</v>
@@ -16612,7 +16462,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.829480114461432</v>
+        <v>1.987871952512761</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.137050915950901</v>
@@ -16701,7 +16551,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.825000797841926</v>
+        <v>1.985016963745739</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.225283395876042</v>
@@ -16790,7 +16640,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.834240094749228</v>
+        <v>1.997599182284737</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.181580538085243</v>
@@ -16879,7 +16729,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.836967861773448</v>
+        <v>2.000560562634213</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.532970930752294</v>
@@ -16968,7 +16818,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.839064594453805</v>
+        <v>2.006324310852122</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.266818150903759</v>
@@ -17057,7 +16907,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.836885317210034</v>
+        <v>2.00245250637982</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.21468998992693</v>
@@ -17146,7 +16996,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.835194978408656</v>
+        <v>2.002101588266457</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.572346341560735</v>
@@ -17235,7 +17085,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.826679269592542</v>
+        <v>1.989416200042921</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.277934948181707</v>
@@ -17324,7 +17174,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.835001525368487</v>
+        <v>2.002017422344483</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.265585302900401</v>
@@ -17413,7 +17263,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.832698224029472</v>
+        <v>1.998637564255834</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.218213996239979</v>
@@ -17502,7 +17352,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.82860209127205</v>
+        <v>1.99247143595429</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.612027130739505</v>
@@ -17591,7 +17441,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.819534746473532</v>
+        <v>1.981951914339926</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.437599234372999</v>
@@ -17680,7 +17530,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.811820149993536</v>
+        <v>1.964334928985138</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.050997137558385</v>
@@ -17769,7 +17619,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.801116573767023</v>
+        <v>1.957134035179888</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.390646854478907</v>
@@ -17858,7 +17708,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.800379271386367</v>
+        <v>1.956293628252839</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.507345680030006</v>
@@ -17947,7 +17797,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.812005355189295</v>
+        <v>1.969863198244294</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.402858024045231</v>
@@ -18036,7 +17886,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.813257888155256</v>
+        <v>1.97236873363109</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.558579378432453</v>
@@ -18125,7 +17975,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.814115396640633</v>
+        <v>1.972876010721005</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.550648471106159</v>
@@ -18214,7 +18064,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.800687284656402</v>
+        <v>1.954599603499049</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.911197344779176</v>
@@ -18303,7 +18153,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.797380833744489</v>
+        <v>1.946720588051887</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.859910275789735</v>
@@ -18392,7 +18242,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.793933944656516</v>
+        <v>1.940470713807447</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.821895613893428</v>
@@ -18481,7 +18331,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.792640336022847</v>
+        <v>1.939463527579914</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.815041150622604</v>
@@ -18570,7 +18420,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.800235039934131</v>
+        <v>1.95262925475974</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.653705082713348</v>
@@ -18659,7 +18509,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.80153325492559</v>
+        <v>1.953028533582682</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.622072634605965</v>
@@ -18748,7 +18598,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.789088255989565</v>
+        <v>1.93691762743758</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.674536461655446</v>
@@ -18837,7 +18687,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.790503132015079</v>
+        <v>1.937678819086777</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.576729312917133</v>
@@ -18926,7 +18776,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.791376113742523</v>
+        <v>1.938236627353821</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.871506545886108</v>
@@ -19015,7 +18865,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.798731667949526</v>
+        <v>1.946012881022157</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.154699069529851</v>
@@ -19104,7 +18954,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.796043361961577</v>
+        <v>1.938911084526854</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.028914932083434</v>
@@ -19193,7 +19043,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.791328212468468</v>
+        <v>1.932109005100272</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.544765457788055</v>
@@ -19282,7 +19132,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.778844344425876</v>
+        <v>1.91634435684555</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.468164930479543</v>
@@ -19371,7 +19221,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.780696021507731</v>
+        <v>1.916866676094209</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.59610080382169</v>
@@ -19460,7 +19310,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.780737057069234</v>
+        <v>1.916315544109942</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.964690093894564</v>
@@ -19549,7 +19399,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.788792780275884</v>
+        <v>1.927610673926361</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.008760256308571</v>
@@ -19638,7 +19488,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.790937162003714</v>
+        <v>1.931031730828017</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.758881498382387</v>
@@ -19727,7 +19577,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.795157746571019</v>
+        <v>1.936220007374704</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.627292351369274</v>
@@ -19816,7 +19666,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.784644752836669</v>
+        <v>1.921555674134877</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.752393938074186</v>
@@ -19905,7 +19755,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.783104057911976</v>
+        <v>1.921628449107513</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.629960518027901</v>
@@ -19994,7 +19844,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.782274542362134</v>
+        <v>1.920187585167749</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.5552270084912</v>
@@ -20083,7 +19933,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.787106319258568</v>
+        <v>1.926996649805055</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.040177364381353</v>
@@ -20172,7 +20022,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.790734002604013</v>
+        <v>1.92960410676514</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.938773816680134</v>
@@ -20261,7 +20111,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.79614463291578</v>
+        <v>1.935952898026781</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.144911203149783</v>
@@ -20350,7 +20200,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.783490421052222</v>
+        <v>1.922892922464208</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.668566455223297</v>
@@ -20439,7 +20289,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.789878169887832</v>
+        <v>1.933946962161606</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.991797659019742</v>
@@ -20528,7 +20378,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.788333649653678</v>
+        <v>1.932232930629522</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.904056889917395</v>
@@ -20617,7 +20467,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.797808989371639</v>
+        <v>1.944958032377486</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.947259640853269</v>
@@ -20903,7 +20753,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.083674784036541</v>
+        <v>2.179917334430343</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>7.207267710506743</v>
@@ -20992,7 +20842,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.083074085062688</v>
+        <v>2.18143566905931</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>5.937339357570926</v>
@@ -21081,7 +20931,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.08497446770241</v>
+        <v>2.18427253339215</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>8.201540448311921</v>
@@ -21170,7 +21020,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.087950924692613</v>
+        <v>2.187580159032906</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>6.400336994974971</v>
@@ -21259,7 +21109,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.086858511447386</v>
+        <v>2.186946433420588</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>7.750790758111497</v>
@@ -21348,7 +21198,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.089384679446838</v>
+        <v>2.189567615138195</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>6.926652921873836</v>
@@ -21437,7 +21287,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.08834985296461</v>
+        <v>2.188663197013664</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>7.763352659393699</v>
@@ -21526,7 +21376,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.088634561445629</v>
+        <v>2.189620262208875</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>8.374500869624928</v>
@@ -21615,7 +21465,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.088795406733174</v>
+        <v>2.189868522084979</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>5.793906439755068</v>
@@ -21704,7 +21554,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.088781710228506</v>
+        <v>2.190755083291859</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>8.304707766647599</v>
@@ -21793,7 +21643,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.088224567675494</v>
+        <v>2.189948283747384</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>5.739391989224749</v>
@@ -21882,7 +21732,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.087019469285301</v>
+        <v>2.188374571970983</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>5.766373985068306</v>
@@ -21971,7 +21821,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.088115883384983</v>
+        <v>2.189052183793486</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>5.690239961528897</v>
@@ -22060,7 +21910,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.090395166818904</v>
+        <v>2.191892486816696</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>7.349972964066328</v>
@@ -22149,7 +21999,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.090434509052362</v>
+        <v>2.192052224031495</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>9.595247662303169</v>
@@ -22238,7 +22088,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.090804492059149</v>
+        <v>2.193088028596833</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>6.373866907126163</v>
@@ -22327,7 +22177,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.09133277266421</v>
+        <v>2.193149716181395</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>8.331397291752278</v>
@@ -22416,7 +22266,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2.090578317797951</v>
+        <v>2.191845854834652</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>9.079324501679148</v>
@@ -22505,7 +22355,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.08984860012753</v>
+        <v>2.189495252822723</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>5.906162731289563</v>
@@ -22594,7 +22444,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.092554683149624</v>
+        <v>2.192622618719954</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>6.184131992033784</v>
@@ -22683,7 +22533,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.09153090689619</v>
+        <v>2.191502113399276</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>7.928163175353486</v>
@@ -22772,7 +22622,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.09121432172464</v>
+        <v>2.191099508573052</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>6.506024988774696</v>
@@ -22861,7 +22711,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.092620902421101</v>
+        <v>2.192292129031852</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>7.401935678066376</v>
@@ -22950,7 +22800,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.090499497705856</v>
+        <v>2.189579745131521</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>5.819077756092896</v>
@@ -23039,7 +22889,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.092902600547911</v>
+        <v>2.191191845872392</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>8.972248124785274</v>
@@ -23128,7 +22978,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.092379058882886</v>
+        <v>2.190256857754682</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>9.723223665056853</v>
@@ -23217,7 +23067,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.095776684733774</v>
+        <v>2.193300340689237</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>7.148257681196825</v>
@@ -23306,7 +23156,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.09582563482579</v>
+        <v>2.193251565555288</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>6.942939653620179</v>
@@ -23395,7 +23245,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.095698671387004</v>
+        <v>2.192139844448363</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>9.606409556172988</v>
@@ -23484,7 +23334,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.09598352252539</v>
+        <v>2.192256896455847</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>9.331119739484548</v>
@@ -23573,7 +23423,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.095741303715059</v>
+        <v>2.190419160812284</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>5.858539988053387</v>
@@ -23662,7 +23512,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.097725170369845</v>
+        <v>2.192171349122324</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>10.20316136278674</v>
@@ -23751,7 +23601,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.098412554874962</v>
+        <v>2.192832753965546</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>6.935564359633092</v>
@@ -23840,7 +23690,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.097046621146049</v>
+        <v>2.192438199273275</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>6.031655725688825</v>
@@ -23929,7 +23779,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.095223833397724</v>
+        <v>2.189888962148587</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>9.10466964468505</v>
@@ -24018,7 +23868,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2.095821652357389</v>
+        <v>2.189678790121945</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>6.184866992635992</v>
@@ -24107,7 +23957,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2.094829849614793</v>
+        <v>2.188777970238014</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>10.11474744744417</v>
@@ -24196,7 +24046,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.09490059283504</v>
+        <v>2.187444965597857</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>9.16239913096417</v>
@@ -24285,7 +24135,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.096255823319036</v>
+        <v>2.188151507688522</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>6.569430802706344</v>
@@ -24374,7 +24224,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2.094683019100586</v>
+        <v>2.18698392253629</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>6.722637604049361</v>
@@ -24463,7 +24313,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.095805677306646</v>
+        <v>2.187750925770577</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>9.29803225753443</v>
@@ -24552,7 +24402,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.097533373390418</v>
+        <v>2.189254885888085</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>9.231877722854238</v>
@@ -24641,7 +24491,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.09723073618984</v>
+        <v>2.188880994285485</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>7.118858106822628</v>
@@ -24730,7 +24580,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2.09649462306726</v>
+        <v>2.189052928690445</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>5.980584157013877</v>
@@ -24819,7 +24669,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>2.096091218960678</v>
+        <v>2.188855974937047</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>7.188666626966399</v>
@@ -24908,7 +24758,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>2.098177661828323</v>
+        <v>2.190506242359213</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>8.802042667297679</v>
@@ -24997,7 +24847,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>2.09946236673123</v>
+        <v>2.191156172356097</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>6.860279359532236</v>
@@ -25086,7 +24936,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>2.100656115056753</v>
+        <v>2.1923393141259</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>6.68719546401392</v>
@@ -25175,7 +25025,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>2.101732645400537</v>
+        <v>2.193820790243924</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>6.592124902125223</v>
@@ -25264,7 +25114,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>2.10317187237251</v>
+        <v>2.196443612093234</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>6.450802663573274</v>
@@ -25353,7 +25203,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>2.104624485028023</v>
+        <v>2.198289176395166</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>6.150349232461386</v>
@@ -25442,7 +25292,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>2.107360744536523</v>
+        <v>2.199811169881065</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>7.185000062686528</v>
@@ -25531,7 +25381,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>2.110002930414914</v>
+        <v>2.20182387647449</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>8.67461273525225</v>
@@ -25620,7 +25470,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>2.113533109129649</v>
+        <v>2.203849003010403</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>6.50888489984301</v>
@@ -25709,7 +25559,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>2.116146034605856</v>
+        <v>2.205716230970276</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>7.259490545641992</v>
@@ -25798,7 +25648,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>2.117352932404446</v>
+        <v>2.206809933798083</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>9.054641279222917</v>
@@ -25887,7 +25737,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>2.118592730010407</v>
+        <v>2.206946677424185</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>10.82845682172352</v>
@@ -25976,7 +25826,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>2.119832018281421</v>
+        <v>2.207327702165946</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>9.663302791034438</v>
@@ -26065,7 +25915,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>2.121934513420386</v>
+        <v>2.208750946693189</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>7.58220429617824</v>
@@ -26154,7 +26004,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>2.124679551725739</v>
+        <v>2.210665824679381</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>7.339282533690236</v>
@@ -26243,7 +26093,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>2.125205059687593</v>
+        <v>2.211698164280367</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>7.603055327595525</v>
@@ -26332,7 +26182,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>2.125494925834443</v>
+        <v>2.212174315246429</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>9.078825278417257</v>
@@ -26421,7 +26271,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>2.129922464632807</v>
+        <v>2.214102918105142</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>10.43500405730225</v>
@@ -26510,7 +26360,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>2.133133569485576</v>
+        <v>2.217079514347819</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>11.49568347745812</v>
@@ -26599,7 +26449,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>2.135491857148251</v>
+        <v>2.218773026543572</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>11.15111072925573</v>
@@ -26688,7 +26538,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>2.137136310780161</v>
+        <v>2.219792849554787</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>7.662696275197732</v>
@@ -26777,7 +26627,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>2.137279619377945</v>
+        <v>2.221473640626156</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>6.82405644759725</v>
@@ -26866,7 +26716,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>2.136078556708338</v>
+        <v>2.221986947665651</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>6.537547812878806</v>
@@ -27152,7 +27002,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.16462884278495</v>
+        <v>2.211137343935042</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>9.855038064033042</v>
@@ -27241,7 +27091,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.168107282583323</v>
+        <v>2.213508642467308</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>5.900420634262512</v>
@@ -27330,7 +27180,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.168696365808371</v>
+        <v>2.214273885216598</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>7.829998985602605</v>
@@ -27419,7 +27269,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.171418196746921</v>
+        <v>2.216066747843032</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5.674737770051117</v>
@@ -27508,7 +27358,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.172407111687694</v>
+        <v>2.21688711207962</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>6.992342048492987</v>
@@ -27597,7 +27447,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.171300845801882</v>
+        <v>2.213554568456981</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>7.020401247475754</v>
@@ -27686,7 +27536,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.170646827329365</v>
+        <v>2.214500890320051</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>5.957451156476174</v>
@@ -27775,7 +27625,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.170605667000309</v>
+        <v>2.213720834223228</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>7.886208461045326</v>
@@ -27864,7 +27714,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.169741429345872</v>
+        <v>2.212710695291811</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>5.999848381779199</v>
@@ -27953,7 +27803,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.170961360929359</v>
+        <v>2.212441253988691</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>9.430043997670642</v>
@@ -28042,7 +27892,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.173419957635258</v>
+        <v>2.211914834278107</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>8.022853069568987</v>
@@ -28131,7 +27981,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.176893831532398</v>
+        <v>2.213539151423688</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>7.113384558116111</v>
@@ -28220,7 +28070,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.175572272683625</v>
+        <v>2.211287391785578</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>7.467301497483022</v>
@@ -28309,7 +28159,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.171828080878194</v>
+        <v>2.209989917314179</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>6.129911821671963</v>
@@ -28398,7 +28248,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.171698008171948</v>
+        <v>2.210409176831078</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>8.297647812447218</v>
@@ -28487,7 +28337,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.170821374596347</v>
+        <v>2.211376753325088</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>7.379893520247824</v>
@@ -28576,7 +28426,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.168999122589007</v>
+        <v>2.209390641422679</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>8.335350869237438</v>
@@ -28665,7 +28515,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2.168184319471755</v>
+        <v>2.208721736517253</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>7.64461316036816</v>
@@ -28754,7 +28604,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.170762684108822</v>
+        <v>2.209994088192863</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>6.112589946967136</v>
@@ -28843,7 +28693,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.166187528689804</v>
+        <v>2.207734025061854</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>7.039391438612316</v>
@@ -28932,7 +28782,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.170686846212659</v>
+        <v>2.210282158528346</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>7.428485491447042</v>
@@ -29021,7 +28871,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.173096060443759</v>
+        <v>2.211724374173179</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>7.434570657670955</v>
@@ -29110,7 +28960,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.169880546685569</v>
+        <v>2.210707617593354</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>8.081971678421832</v>
@@ -29199,7 +29049,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.171380286328705</v>
+        <v>2.211171507062765</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>6.95849283720901</v>
@@ -29288,7 +29138,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.170982873396314</v>
+        <v>2.212283402525669</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>6.186223741073376</v>
@@ -29377,7 +29227,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.172158922196187</v>
+        <v>2.212417823259128</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>8.566266488956538</v>
@@ -29466,7 +29316,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.169687207063137</v>
+        <v>2.212493709665268</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>6.669215205934973</v>
@@ -29555,7 +29405,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.166662031711732</v>
+        <v>2.212209297135663</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>6.589347334925992</v>
@@ -29644,7 +29494,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.16992394706055</v>
+        <v>2.21336174037226</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>9.387546209531706</v>
@@ -29733,7 +29583,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.169345344105242</v>
+        <v>2.212985176427923</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>7.026969004424529</v>
@@ -29822,7 +29672,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.17306598395259</v>
+        <v>2.213015153120707</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>6.5391571268806</v>
@@ -29911,7 +29761,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.172466905717027</v>
+        <v>2.213967130170968</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>11.3539387760273</v>
@@ -30000,7 +29850,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.174131141335802</v>
+        <v>2.215634208761577</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>7.432603523494372</v>
@@ -30089,7 +29939,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.173872470267579</v>
+        <v>2.216586248070517</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>6.696567518062433</v>
@@ -30178,7 +30028,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.178691658363291</v>
+        <v>2.218665694697231</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>9.659579416880456</v>
@@ -30267,7 +30117,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2.180323015403634</v>
+        <v>2.217827700696095</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>6.565393790349185</v>
@@ -30356,7 +30206,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2.180181970510394</v>
+        <v>2.217474204037532</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>8.693510420079736</v>
@@ -30445,7 +30295,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.176964328456092</v>
+        <v>2.214841070119323</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>8.229207994617665</v>
@@ -30534,7 +30384,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.176497795719245</v>
+        <v>2.214748248254721</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>6.582120839291376</v>
@@ -30623,7 +30473,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2.174102287122942</v>
+        <v>2.212576354855467</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>6.567820052170354</v>
@@ -30712,7 +30562,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.170507595244928</v>
+        <v>2.211768125129943</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>9.601656294447437</v>
@@ -30801,7 +30651,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.169954875932471</v>
+        <v>2.210655783427978</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>7.022899853088516</v>
@@ -30890,7 +30740,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.170381302045847</v>
+        <v>2.210733824678796</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>6.398312790376356</v>
@@ -30979,7 +30829,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2.167549516985926</v>
+        <v>2.209114153070181</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>7.422812879946846</v>
@@ -31068,7 +30918,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>2.166857244198618</v>
+        <v>2.208879921392316</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>8.494287275069567</v>
@@ -31157,7 +31007,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>2.166762785272938</v>
+        <v>2.208952692529481</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>11.68251223741476</v>
@@ -31246,7 +31096,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>2.163945157061169</v>
+        <v>2.207405296866743</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>7.901613294491257</v>
@@ -31335,7 +31185,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>2.158816518231453</v>
+        <v>2.205158916081569</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>7.692039904128182</v>
@@ -31424,7 +31274,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>2.154095657260164</v>
+        <v>2.202851902463594</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>7.110834357252171</v>
@@ -31513,7 +31363,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>2.146891265450521</v>
+        <v>2.199938329614323</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>6.756011950833711</v>
@@ -31602,7 +31452,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>2.13914280987949</v>
+        <v>2.196289194829191</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>6.518728847707572</v>
@@ -31691,7 +31541,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>2.137768928688506</v>
+        <v>2.196415458416115</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>7.334810580118887</v>
@@ -31780,7 +31630,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>2.136228322946496</v>
+        <v>2.19710849522635</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>9.116696005515848</v>
@@ -31869,7 +31719,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>2.136254110329648</v>
+        <v>2.197395860984106</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>6.316955499886769</v>
@@ -31958,7 +31808,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>2.134674035263784</v>
+        <v>2.198320312617867</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>5.702657181373422</v>
@@ -32047,7 +31897,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>2.131307021077285</v>
+        <v>2.197514932827652</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>6.055181915384011</v>
@@ -32136,7 +31986,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>2.130359508378006</v>
+        <v>2.197508496020927</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>6.93715743295416</v>
@@ -32225,7 +32075,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>2.132368826195324</v>
+        <v>2.198845731732746</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>7.83175970822259</v>
@@ -32314,7 +32164,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>2.134253294073306</v>
+        <v>2.200369293671281</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>7.971136300406657</v>
@@ -32403,7 +32253,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>2.133179389529839</v>
+        <v>2.202116093493481</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>5.933325244926261</v>
@@ -32492,7 +32342,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>2.129019291805916</v>
+        <v>2.201144790891729</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>5.510754522699514</v>
@@ -32581,7 +32431,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>2.132627819019946</v>
+        <v>2.203125682098022</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>8.916142567937948</v>
@@ -32670,7 +32520,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>2.139016421531466</v>
+        <v>2.206514595778153</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>8.751981360852545</v>
@@ -32759,7 +32609,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>2.133712500636714</v>
+        <v>2.204356607837986</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>9.590440540513104</v>
@@ -32848,7 +32698,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>2.1343739687225</v>
+        <v>2.206412353043567</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>7.814898415401787</v>
@@ -32937,7 +32787,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>2.138183094237246</v>
+        <v>2.209028515331435</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>6.93292470133645</v>
@@ -33026,7 +32876,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>2.131119072774234</v>
+        <v>2.206468334702013</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>6.235266840528943</v>
@@ -33115,7 +32965,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>2.131055155960974</v>
+        <v>2.206214234900882</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>6.269488643469545</v>
@@ -33401,7 +33251,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.89924844601942</v>
+        <v>2.0570360939187</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.345962810593499</v>
@@ -33490,7 +33340,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.903485756876885</v>
+        <v>2.066265077302952</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.398694181074951</v>
@@ -33579,7 +33429,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.906854674004407</v>
+        <v>2.075816794893102</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.514923178750294</v>
@@ -33668,7 +33518,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.904679851566693</v>
+        <v>2.076959029493398</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.594747167144345</v>
@@ -33757,7 +33607,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.895434394425718</v>
+        <v>2.065177047632021</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.014116685055872</v>
@@ -33846,7 +33696,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.899838981667754</v>
+        <v>2.065810635420116</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.23096626049552</v>
@@ -33935,7 +33785,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.898967727318732</v>
+        <v>2.068110218838015</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.760118225270288</v>
@@ -34024,7 +33874,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.903560737882649</v>
+        <v>2.072282439274962</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.855869107050799</v>
@@ -34113,7 +33963,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.906033033884894</v>
+        <v>2.07071994194713</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>5.208521896579488</v>
@@ -34202,7 +34052,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.909800544701954</v>
+        <v>2.072956849761761</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.578209324185585</v>
@@ -34291,7 +34141,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.911228565532138</v>
+        <v>2.071452385083823</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.65578370948911</v>
@@ -34380,7 +34230,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.919818983742632</v>
+        <v>2.075431627381595</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.788266816919839</v>
@@ -34469,7 +34319,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.919091981837724</v>
+        <v>2.075002057303434</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.610573773159011</v>
@@ -34558,7 +34408,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.913514491810341</v>
+        <v>2.070468473235061</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.984425095418255</v>
@@ -34647,7 +34497,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.917091133188322</v>
+        <v>2.070455914380322</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.39678314160556</v>
@@ -34736,7 +34586,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.912562004288413</v>
+        <v>2.065316277308699</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.527999293004257</v>
@@ -34825,7 +34675,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.916061638296291</v>
+        <v>2.064241787873445</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>5.071738546347072</v>
@@ -34914,7 +34764,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.916358542500506</v>
+        <v>2.061208528770806</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>5.383467177483436</v>
@@ -35003,7 +34853,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.922027391388353</v>
+        <v>2.064137354591674</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>5.244433646136528</v>
@@ -35092,7 +34942,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.925700785753604</v>
+        <v>2.068368066910413</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.718368796792407</v>
@@ -35181,7 +35031,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.921539095284175</v>
+        <v>2.064750332539182</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.858463331076607</v>
@@ -35270,7 +35120,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.924298731831832</v>
+        <v>2.066292311599572</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.35705839711152</v>
@@ -35359,7 +35209,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.917819930798138</v>
+        <v>2.059706744811628</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.334602414274765</v>
@@ -35448,7 +35298,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.917817588111054</v>
+        <v>2.058664666899857</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.408910667052924</v>
@@ -35537,7 +35387,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.916152733146469</v>
+        <v>2.054568742757797</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.530930944513993</v>
@@ -35626,7 +35476,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.919365683867668</v>
+        <v>2.05498082123087</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.256208543396523</v>
@@ -35715,7 +35565,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.931993441237997</v>
+        <v>2.066261109493264</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.301650336907945</v>
@@ -35804,7 +35654,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.92236340206309</v>
+        <v>2.056219137830265</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.270607415368031</v>
@@ -35893,7 +35743,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.92772999005109</v>
+        <v>2.056063384380431</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.6584475654566</v>
@@ -35982,7 +35832,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.925498444348568</v>
+        <v>2.053605161052295</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.122558206715164</v>
@@ -36071,7 +35921,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.928363913359602</v>
+        <v>2.056301370933222</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.420986927464802</v>
@@ -36160,7 +36010,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.927402051331131</v>
+        <v>2.054274134673244</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.093590661744796</v>
@@ -36249,7 +36099,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.91585161426658</v>
+        <v>2.043192670801143</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.615333634679303</v>
@@ -36338,7 +36188,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.904919460765002</v>
+        <v>2.034795445074244</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>5.009239929954853</v>
@@ -36427,7 +36277,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.911910771446931</v>
+        <v>2.037428353163111</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.616012920367148</v>
@@ -36516,7 +36366,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.914232611101564</v>
+        <v>2.037400368365029</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.50578791006307</v>
@@ -36605,7 +36455,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.9134388548948</v>
+        <v>2.03837448955567</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.920382987132478</v>
@@ -36694,7 +36544,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.919074111279772</v>
+        <v>2.039424096460177</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.108199665330758</v>
@@ -36783,7 +36633,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.919922329884312</v>
+        <v>2.041992399521094</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.68450709884772</v>
@@ -36872,7 +36722,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.923157896340534</v>
+        <v>2.043218015077342</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.802967964772055</v>
@@ -36961,7 +36811,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.916633804160862</v>
+        <v>2.035923510973777</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.753949315662488</v>
@@ -37050,7 +36900,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.917707301695988</v>
+        <v>2.03681410764506</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.865371427673637</v>
@@ -37139,7 +36989,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.923342958153946</v>
+        <v>2.043534930907968</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.912361880281196</v>
@@ -37228,7 +37078,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.923146042671865</v>
+        <v>2.044563612137911</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.645473969032487</v>
@@ -37317,7 +37167,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.9241849526798</v>
+        <v>2.047001132752271</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.419091253772656</v>
@@ -37406,7 +37256,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.930610647168164</v>
+        <v>2.049513938079758</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>5.181479599013342</v>
@@ -37495,7 +37345,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.934879159334971</v>
+        <v>2.051487614004322</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>5.244247088740204</v>
@@ -37584,7 +37434,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.944603492583084</v>
+        <v>2.060880292067588</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.834836295519571</v>
@@ -37673,7 +37523,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.941092924663224</v>
+        <v>2.057440512584767</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>5.21180263994939</v>
@@ -37762,7 +37612,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.938793924860035</v>
+        <v>2.056364883115468</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.166006523495413</v>
@@ -37851,7 +37701,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.941948509762825</v>
+        <v>2.057530474436482</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.999692814648419</v>
@@ -37940,7 +37790,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.947592491965949</v>
+        <v>2.061820319871016</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>5.172903044890083</v>
@@ -38029,7 +37879,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.956673555055057</v>
+        <v>2.06860403453011</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.697405744209229</v>
@@ -38118,7 +37968,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.963483428374551</v>
+        <v>2.072579789801968</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.616126168378853</v>
@@ -38207,7 +38057,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.963308053515952</v>
+        <v>2.072205996096038</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.965094301256443</v>
@@ -38296,7 +38146,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.976250687704518</v>
+        <v>2.084879844042558</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>5.14377447105861</v>
@@ -38385,7 +38235,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.977789129657773</v>
+        <v>2.083670156644877</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.540861995694997</v>
@@ -38474,7 +38324,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.987976229970547</v>
+        <v>2.091305761656525</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.334300786231911</v>
@@ -38563,7 +38413,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.996916597760497</v>
+        <v>2.099159260913062</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>5.672146924946385</v>
@@ -38652,7 +38502,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.99613277029706</v>
+        <v>2.098661067276528</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>5.123212344949077</v>
@@ -38741,7 +38591,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.995412727640686</v>
+        <v>2.09821033814311</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>5.743156553182896</v>
@@ -38830,7 +38680,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>2.000009390350403</v>
+        <v>2.101796576733069</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>5.817387905706056</v>
@@ -38919,7 +38769,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>2.016144835774231</v>
+        <v>2.114635332407928</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>5.819441170445798</v>
@@ -39008,7 +38858,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>2.020816592320616</v>
+        <v>2.119767853431561</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>5.854206520510039</v>
@@ -39097,7 +38947,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>2.025160179989824</v>
+        <v>2.12490612252297</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>5.649054148468434</v>
@@ -39186,7 +39036,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>2.027105132200618</v>
+        <v>2.126527273262818</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>5.273697755355727</v>
@@ -39275,7 +39125,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>2.018408992320888</v>
+        <v>2.119361950458099</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>5.239242786095583</v>
@@ -39364,7 +39214,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>2.013565773824797</v>
+        <v>2.117278558721735</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>5.771136935839905</v>
@@ -39650,7 +39500,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.101327159814461</v>
+        <v>2.164561564502335</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>7.34787365634303</v>
@@ -39739,7 +39589,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.102325386875669</v>
+        <v>2.165968831670503</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>5.505875342215461</v>
@@ -39828,7 +39678,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.110962898189679</v>
+        <v>2.171990639695405</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>5.886245709005277</v>
@@ -39917,7 +39767,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.107582457768947</v>
+        <v>2.16769495131348</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.375754270807853</v>
@@ -40006,7 +39856,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.110659556089855</v>
+        <v>2.171163839314052</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>5.742614863382856</v>
@@ -40095,7 +39945,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.118949011763206</v>
+        <v>2.174168474724761</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>5.704689685727324</v>
@@ -40184,7 +40034,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.114558399634356</v>
+        <v>2.171981543502752</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>5.177988290828647</v>
@@ -40273,7 +40123,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.127467193526783</v>
+        <v>2.179938234054811</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>7.039213845245063</v>
@@ -40362,7 +40212,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.118169236494909</v>
+        <v>2.172888684476485</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>5.664897009018763</v>
@@ -40451,7 +40301,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.125962266083377</v>
+        <v>2.177800967855436</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>5.732791137792559</v>
@@ -40540,7 +40390,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.12690258972204</v>
+        <v>2.178159723035207</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>5.877459255214056</v>
@@ -40629,7 +40479,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.115999068519837</v>
+        <v>2.169172997078569</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.964252592456017</v>
@@ -40718,7 +40568,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.12341256611111</v>
+        <v>2.175188268593044</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>6.434326290055274</v>
@@ -40807,7 +40657,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.121501062637436</v>
+        <v>2.17433749230063</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>6.042540379591134</v>
@@ -40896,7 +40746,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.12292705211655</v>
+        <v>2.174335234242781</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>6.51120553721616</v>
@@ -40985,7 +40835,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.113486728609364</v>
+        <v>2.167141905540308</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>5.120860916776071</v>
@@ -41074,7 +40924,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.122382501323572</v>
+        <v>2.172454117425719</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>5.413248132136374</v>
@@ -41163,7 +41013,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2.115553503627293</v>
+        <v>2.167829707409616</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>6.955355267909074</v>
@@ -41252,7 +41102,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.127227387366425</v>
+        <v>2.174856266119133</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>5.155508161420218</v>
@@ -41341,7 +41191,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.114475689088657</v>
+        <v>2.166358542630182</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>6.62825454136685</v>
@@ -41430,7 +41280,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.118709573748182</v>
+        <v>2.170844919063469</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>6.196295443045232</v>
@@ -41519,7 +41369,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.1210206207308</v>
+        <v>2.173406843301038</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>5.605721133960961</v>
@@ -41608,7 +41458,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.111416798159718</v>
+        <v>2.167530506069288</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>6.012138445231114</v>
@@ -41697,7 +41547,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.120621664123366</v>
+        <v>2.175287171249464</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>6.511463506463461</v>
@@ -41786,7 +41636,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.120722492210892</v>
+        <v>2.175674333550869</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>6.261944969936722</v>
@@ -41875,7 +41725,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.11556994356333</v>
+        <v>2.171170635267559</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>7.624743798575193</v>
@@ -41964,7 +41814,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.124615774149344</v>
+        <v>2.180094901256108</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>5.106714926244492</v>
@@ -42053,7 +41903,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.121870231776956</v>
+        <v>2.1790237378794</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>5.314728541258461</v>
@@ -42142,7 +41992,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.122066137127128</v>
+        <v>2.17962901393888</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>6.528959649795559</v>
@@ -42231,7 +42081,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.122096499783467</v>
+        <v>2.181001210259552</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>6.405228453979618</v>
@@ -42320,7 +42170,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.131214694174601</v>
+        <v>2.186735326434977</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>6.375736239707344</v>
@@ -42409,7 +42259,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.130569761405647</v>
+        <v>2.186800156588973</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>5.463914512617156</v>
@@ -42498,7 +42348,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.129786863018162</v>
+        <v>2.186909110032178</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>5.218614369872124</v>
@@ -42587,7 +42437,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.122398850290859</v>
+        <v>2.181723618299699</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>5.181088776956046</v>
@@ -42676,7 +42526,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.134697277114173</v>
+        <v>2.188625172104072</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>5.757446307933417</v>
@@ -42765,7 +42615,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2.12913916002219</v>
+        <v>2.183703006551388</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>6.221037311488779</v>
@@ -42854,7 +42704,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2.130001819729805</v>
+        <v>2.183516573988456</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>6.783386900982496</v>
@@ -42943,7 +42793,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.129230066501953</v>
+        <v>2.179774406140394</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>6.904856492103175</v>
@@ -43032,7 +42882,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.128501605321902</v>
+        <v>2.17897816634706</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>5.177467303052473</v>
@@ -43121,7 +42971,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2.117498515122356</v>
+        <v>2.171164458528311</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>5.423116141364481</v>
@@ -43210,7 +43060,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.123535566149202</v>
+        <v>2.174974308601486</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>7.405934778090466</v>
@@ -43299,7 +43149,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.118722142723481</v>
+        <v>2.171368699226494</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>6.254097798679928</v>
@@ -43388,7 +43238,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.110229094898837</v>
+        <v>2.16518364969785</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>5.821015439922108</v>
@@ -43477,7 +43327,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2.111088813972902</v>
+        <v>2.165585995190868</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>6.446155413196403</v>
@@ -43566,7 +43416,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>2.117517972691664</v>
+        <v>2.170119171867004</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>7.566641737200506</v>
@@ -43655,7 +43505,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>2.113034440946478</v>
+        <v>2.167236194818213</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>6.933323172662648</v>
@@ -43744,7 +43594,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>2.112178862807358</v>
+        <v>2.166016692054034</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>5.587831584688015</v>
@@ -43833,7 +43683,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>2.115545195068502</v>
+        <v>2.169882240594511</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>6.59754700641236</v>
@@ -43922,7 +43772,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>2.120565560564454</v>
+        <v>2.174262622259164</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>5.379562133867481</v>
@@ -44011,7 +43861,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>2.103142067290463</v>
+        <v>2.162916491122896</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>5.599791390056318</v>
@@ -44100,7 +43950,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>2.103327876697315</v>
+        <v>2.161274404528573</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>5.364575947804742</v>
@@ -44189,7 +44039,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>2.097228435631482</v>
+        <v>2.159800857758271</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>6.301370541396855</v>
@@ -44278,7 +44128,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>2.100599431816031</v>
+        <v>2.164966624833903</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>7.46168788351583</v>
@@ -44367,7 +44217,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>2.098153229972527</v>
+        <v>2.164217530204002</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>5.664203457367455</v>
@@ -44456,7 +44306,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>2.098461117514487</v>
+        <v>2.166622553331859</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>5.129746594582023</v>
@@ -44545,7 +44395,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>2.092840863542022</v>
+        <v>2.163797982168856</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>5.413485585989928</v>
@@ -44634,7 +44484,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>2.098019632098513</v>
+        <v>2.167092791947564</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>6.003569272274961</v>
@@ -44723,7 +44573,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>2.106155869229806</v>
+        <v>2.173388976190489</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>6.931831847582626</v>
@@ -44812,7 +44662,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>2.096677579360077</v>
+        <v>2.167192908738083</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>5.940010168016813</v>
@@ -44901,7 +44751,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>2.093578086032626</v>
+        <v>2.165814966708763</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>5.049827560692674</v>
@@ -44990,7 +44840,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>2.0901335322449</v>
+        <v>2.16492544036217</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>5.379788878290681</v>
@@ -45079,7 +44929,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>2.085649026080051</v>
+        <v>2.162374002024486</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>5.87795563595365</v>
@@ -45168,7 +45018,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>2.090464005113293</v>
+        <v>2.166778526741467</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>6.846215289870313</v>
@@ -45257,7 +45107,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>2.083636213533059</v>
+        <v>2.163009585026078</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>5.632997780343094</v>
@@ -45346,7 +45196,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>2.091434906260843</v>
+        <v>2.171337333789411</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>6.426915369506722</v>
@@ -45435,7 +45285,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>2.099216493737674</v>
+        <v>2.17653999997562</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>5.117527838225977</v>
@@ -45524,7 +45374,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>2.085976513360291</v>
+        <v>2.1683667111695</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>5.381117804185204</v>
@@ -45613,7 +45463,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>2.091166515506795</v>
+        <v>2.171413081951264</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>5.906490929590999</v>
